--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">eng</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
+    <t xml:space="preserve">A001</t>
   </si>
   <si>
     <t xml:space="preserve">POI</t>
@@ -70,28 +70,28 @@
     <t xml:space="preserve">CRN</t>
   </si>
   <si>
-    <t xml:space="preserve">002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">009</t>
+    <t xml:space="preserve">A002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A009</t>
   </si>
   <si>
     <t xml:space="preserve">POE</t>
@@ -100,25 +100,25 @@
     <t xml:space="preserve">COE</t>
   </si>
   <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016</t>
+    <t xml:space="preserve">A010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A016</t>
   </si>
 </sst>
 </file>
@@ -249,11 +249,11 @@
   </sheetPr>
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M55" activeCellId="0" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.52"/>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EC5F091E6A3A4B2B1D2E29CD8BD076B249DC4CE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lapBkp\projects\mosip\test9\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E949EFC3-D1E1-42C2-A61D-DA59514D67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="119">
   <si>
     <t>lang_code</t>
   </si>
@@ -374,13 +379,16 @@
   </si>
   <si>
     <t>096</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -753,19 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="5" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="5" max="5" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,12 +790,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -799,12 +807,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -816,12 +824,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -833,12 +841,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -850,12 +858,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -867,12 +875,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -884,12 +892,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -901,80 +909,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -986,12 +994,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1003,63 +1011,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1071,29 +1079,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1105,12 +1113,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1122,12 +1130,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1139,80 +1147,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1224,12 +1232,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1241,63 +1249,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1309,24 +1317,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1334,72 +1342,72 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1411,12 +1419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1428,46 +1436,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1479,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1487,55 +1495,55 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
@@ -1547,12 +1555,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1564,12 +1572,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1581,58 +1589,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1640,72 +1648,72 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
@@ -1717,12 +1725,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1734,46 +1742,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
@@ -1785,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1793,55 +1801,55 @@
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
@@ -1853,46 +1861,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -1904,29 +1912,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1938,12 +1946,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>33</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -1955,12 +1963,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -1972,80 +1980,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -2057,12 +2065,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -2074,63 +2082,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>33</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2142,29 +2150,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>33</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -2176,12 +2184,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -2193,12 +2201,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>33</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
@@ -2210,80 +2218,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>33</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>33</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>33</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -2295,12 +2303,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>33</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2312,63 +2320,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>33</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
@@ -2380,24 +2388,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -2405,72 +2413,72 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>33</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>33</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>33</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>33</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
@@ -2482,12 +2490,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -2499,46 +2507,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>33</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>33</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -2550,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -2558,55 +2566,55 @@
         <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>33</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>33</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -2618,12 +2626,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -2635,12 +2643,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -2652,58 +2660,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>33</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>33</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -2711,72 +2719,72 @@
         <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>33</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>33</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>33</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>33</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
@@ -2788,12 +2796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -2805,46 +2813,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>33</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>33</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C123" t="s">
         <v>24</v>
@@ -2856,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -2864,55 +2872,55 @@
         <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>33</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>33</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>33</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
@@ -2924,46 +2932,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -2975,29 +2983,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>50</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3009,12 +3017,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>50</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
         <v>10</v>
@@ -3026,12 +3034,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>50</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -3043,80 +3051,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>50</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>50</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>50</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>50</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>50</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3128,12 +3136,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>50</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -3145,63 +3153,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>50</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>50</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>50</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>50</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -3213,29 +3221,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>50</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>50</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -3247,12 +3255,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>50</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C147" t="s">
         <v>10</v>
@@ -3264,12 +3272,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>50</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -3281,80 +3289,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>50</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>50</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>50</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>50</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>50</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -3366,12 +3374,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>50</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
@@ -3383,63 +3391,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>50</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>50</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>50</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>50</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
@@ -3451,24 +3459,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>50</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>50</v>
       </c>
@@ -3476,72 +3484,72 @@
         <v>59</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>50</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>50</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>50</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>50</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
@@ -3553,12 +3561,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>50</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -3570,46 +3578,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>50</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>50</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>50</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
@@ -3621,7 +3629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>50</v>
       </c>
@@ -3629,55 +3637,55 @@
         <v>61</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>50</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>50</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>50</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
@@ -3689,12 +3697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>50</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C173" t="s">
         <v>10</v>
@@ -3706,12 +3714,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -3723,58 +3731,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>50</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>50</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>50</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>50</v>
       </c>
@@ -3782,72 +3790,72 @@
         <v>63</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>50</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>50</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>50</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
@@ -3859,12 +3867,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -3876,46 +3884,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>50</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>50</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>50</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
@@ -3927,7 +3935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>50</v>
       </c>
@@ -3935,55 +3943,55 @@
         <v>65</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>50</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>50</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>50</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C190" t="s">
         <v>24</v>
@@ -3995,46 +4003,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -4046,29 +4054,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>67</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -4080,12 +4088,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>67</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C196" t="s">
         <v>10</v>
@@ -4097,12 +4105,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>67</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
@@ -4114,80 +4122,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>67</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>67</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>67</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>67</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>67</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4199,12 +4207,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>67</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
@@ -4216,63 +4224,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>67</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>67</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>67</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C206" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>67</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
@@ -4284,29 +4292,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>67</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>67</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -4318,12 +4326,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>67</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C210" t="s">
         <v>10</v>
@@ -4335,12 +4343,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>67</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
@@ -4352,80 +4360,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>67</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D212" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>67</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>67</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>67</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>67</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -4437,12 +4445,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>67</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
@@ -4454,63 +4462,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>67</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>67</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>67</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>67</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
@@ -4522,24 +4530,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>67</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>67</v>
       </c>
@@ -4547,72 +4555,72 @@
         <v>76</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>67</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>67</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>67</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>67</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C227" t="s">
         <v>24</v>
@@ -4624,12 +4632,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>67</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -4641,46 +4649,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>67</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>67</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>67</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C231" t="s">
         <v>24</v>
@@ -4692,7 +4700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>67</v>
       </c>
@@ -4700,55 +4708,55 @@
         <v>78</v>
       </c>
       <c r="C232" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>67</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>67</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>67</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
@@ -4760,12 +4768,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>67</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C236" t="s">
         <v>10</v>
@@ -4777,12 +4785,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>67</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -4794,58 +4802,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>67</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>67</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>67</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>67</v>
       </c>
@@ -4853,72 +4861,72 @@
         <v>80</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>67</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>67</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C243" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>67</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>67</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C245" t="s">
         <v>24</v>
@@ -4930,12 +4938,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>67</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -4947,46 +4955,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>67</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>67</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>67</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C249" t="s">
         <v>24</v>
@@ -4998,7 +5006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>67</v>
       </c>
@@ -5006,55 +5014,55 @@
         <v>82</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>67</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>67</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>67</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C253" t="s">
         <v>24</v>
@@ -5066,46 +5074,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
@@ -5117,29 +5125,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>84</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -5151,12 +5159,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>84</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
@@ -5168,12 +5176,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>84</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C260" t="s">
         <v>12</v>
@@ -5185,80 +5193,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>84</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D261" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>84</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C262" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>84</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D263" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>84</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>84</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -5270,12 +5278,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>84</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
@@ -5287,63 +5295,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>84</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>84</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>84</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C269" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>84</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -5355,29 +5363,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>84</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D271" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>84</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5389,12 +5397,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>84</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C273" t="s">
         <v>10</v>
@@ -5406,12 +5414,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>84</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -5423,80 +5431,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>84</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>84</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C276" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>84</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D277" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>84</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5508,12 +5516,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>84</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -5525,63 +5533,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>84</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C281" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>84</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>84</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C283" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>84</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C284" t="s">
         <v>12</v>
@@ -5593,24 +5601,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>84</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D285" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>84</v>
       </c>
@@ -5618,72 +5626,72 @@
         <v>93</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D286" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>84</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D287" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>84</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C288" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>84</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D289" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>84</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C290" t="s">
         <v>24</v>
@@ -5695,12 +5703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>84</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -5712,46 +5720,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>84</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C292" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>84</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D293" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>84</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C294" t="s">
         <v>24</v>
@@ -5763,7 +5771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>84</v>
       </c>
@@ -5771,55 +5779,55 @@
         <v>95</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>84</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C296" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D296" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>84</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C297" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D297" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>84</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C298" t="s">
         <v>24</v>
@@ -5831,12 +5839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>84</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C299" t="s">
         <v>10</v>
@@ -5848,12 +5856,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>84</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -5865,58 +5873,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>84</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D301" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>84</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C302" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>84</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C303" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D303" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>84</v>
       </c>
@@ -5924,72 +5932,72 @@
         <v>97</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D304" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>84</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D305" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>84</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C306" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D306" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>84</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C307" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D307" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>84</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C308" t="s">
         <v>24</v>
@@ -6001,12 +6009,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>84</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -6018,46 +6026,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>84</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C310" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>84</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D311" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>84</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C312" t="s">
         <v>24</v>
@@ -6069,7 +6077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>84</v>
       </c>
@@ -6077,55 +6085,55 @@
         <v>99</v>
       </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D313" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>84</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C314" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D314" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>84</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C315" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D315" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>84</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C316" t="s">
         <v>24</v>
@@ -6137,46 +6145,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D317" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C318" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C319" t="s">
         <v>12</v>
@@ -6188,29 +6196,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>101</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -6222,12 +6230,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>101</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C322" t="s">
         <v>10</v>
@@ -6239,12 +6247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>101</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C323" t="s">
         <v>12</v>
@@ -6256,80 +6264,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>101</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C324" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>101</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C325" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D325" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>101</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C326" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>101</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C327" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D327" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>101</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -6341,12 +6349,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>101</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C329" t="s">
         <v>12</v>
@@ -6358,63 +6366,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>101</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C330" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D330" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>101</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D331" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>101</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C332" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D332" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>101</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C333" t="s">
         <v>12</v>
@@ -6426,29 +6434,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>101</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D334" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>101</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -6460,12 +6468,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>101</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C336" t="s">
         <v>10</v>
@@ -6477,12 +6485,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>101</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C337" t="s">
         <v>12</v>
@@ -6494,80 +6502,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>101</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C338" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D338" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>101</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C339" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>101</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D340" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>101</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C341" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D341" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>101</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -6579,12 +6587,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>101</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C343" t="s">
         <v>12</v>
@@ -6596,63 +6604,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>101</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C344" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D344" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>101</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C345" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D345" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>101</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C346" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D346" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>101</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C347" t="s">
         <v>12</v>
@@ -6664,24 +6672,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>101</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C348" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D348" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>101</v>
       </c>
@@ -6689,72 +6697,72 @@
         <v>110</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D349" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>101</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C350" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D350" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>101</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C351" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D351" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>101</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C352" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D352" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>101</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C353" t="s">
         <v>24</v>
@@ -6766,12 +6774,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>101</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C354" t="s">
         <v>7</v>
@@ -6783,46 +6791,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>101</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C355" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D355" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>101</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C356" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D356" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>101</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C357" t="s">
         <v>24</v>
@@ -6834,7 +6842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>101</v>
       </c>
@@ -6842,55 +6850,55 @@
         <v>112</v>
       </c>
       <c r="C358" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D358" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>101</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C359" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>101</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C360" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D360" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>101</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C361" t="s">
         <v>24</v>
@@ -6902,12 +6910,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>101</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C362" t="s">
         <v>10</v>
@@ -6919,12 +6927,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>101</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -6936,58 +6944,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>101</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C364" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D364" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>101</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C365" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>101</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C366" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D366" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -6995,72 +7003,72 @@
         <v>114</v>
       </c>
       <c r="C367" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D367" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>101</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C368" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D368" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>101</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C369" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D369" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>101</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C370" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D370" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>101</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C371" t="s">
         <v>24</v>
@@ -7072,12 +7080,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>101</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -7089,46 +7097,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>101</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C373" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D373" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>101</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C374" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D374" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>101</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C375" t="s">
         <v>24</v>
@@ -7140,7 +7148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>101</v>
       </c>
@@ -7148,55 +7156,55 @@
         <v>116</v>
       </c>
       <c r="C376" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D376" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>101</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C377" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D377" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>101</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C378" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D378" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>101</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C379" t="s">
         <v>24</v>
@@ -7205,6 +7213,74 @@
         <v>25</v>
       </c>
       <c r="E379" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>101</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>101</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C381" t="s">
+        <v>7</v>
+      </c>
+      <c r="D381" t="s">
+        <v>8</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>101</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C382" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>101</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C383" t="s">
+        <v>24</v>
+      </c>
+      <c r="D383" t="s">
+        <v>25</v>
+      </c>
+      <c r="E383" s="1" t="s">
         <v>9</v>
       </c>
     </row>
